--- a/biology/Zoologie/Alexandre_Boukirev/Alexandre_Boukirev.xlsx
+++ b/biology/Zoologie/Alexandre_Boukirev/Alexandre_Boukirev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Ilitch Boukirev (né le 12 septembre 1903, village de Verkh-Motchki, ouïezd de Koungour, gouvernement de Perm, et mort le 26 août 1964, à Perm) est un ichtyologiste soviétique, professeur, recteur de (1939 à 1941) puis de (1946 à 1951), il est doyen de la Faculté de Biologie de 1955 à 1956 à  Université de Perm. Il est Fondateur de la direction scientifique en ichtyologie.
-Pendant la Seconde Guerre mondiale il est le commandant d'un bataillon d'artillerie, auteur de la brochure le char lourd allemand « Tigre B », il a dissipé le mythe de l'invincibilité du char allemand « Panzerkampfwagen VI Königstiger ». Dans l'histoire de Perm, il est connu comme un "recteur guerrier"[1],[2].
+Pendant la Seconde Guerre mondiale il est le commandant d'un bataillon d'artillerie, auteur de la brochure le char lourd allemand « Tigre B », il a dissipé le mythe de l'invincibilité du char allemand « Panzerkampfwagen VI Königstiger ». Dans l'histoire de Perm, il est connu comme un "recteur guerrier",.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1931, il est diplômé du département de biologie de l'Institut pédagogique de Perm. 
 En juin 1940, il a été nommé recteur Université d'État de Perm, à partir de ce poste, il s'est porté volontaire pour le front.
-De 1941 à 1945, il a participé à la Grande Guerre patriotique où il était à la tête d'un bataillon d'artillerie. il a développé des méthodes de traitement du char "Panzerkampfwagen VI Königstiger". Il a identifié les endroits les plus vulnérables et a établi quels obus et à quelle distance il est préférable de toucher la cible[3].
+De 1941 à 1945, il a participé à la Grande Guerre patriotique où il était à la tête d'un bataillon d'artillerie. il a développé des méthodes de traitement du char "Panzerkampfwagen VI Königstiger". Il a identifié les endroits les plus vulnérables et a établi quels obus et à quelle distance il est préférable de toucher la cible.
 De 1946 à 1951, il était le recteur de l'Université d'État de Perm. Surmontant la crise du personnel d'après-guerre, il s'efforça d'attirer à l'université des spécialistes extérieurs hautement qualifiés.
 En 1952, il fut Chef du Département de zoologie des vertébrés Université d'État de Perm.
 De 1955 à 1956, il fut Doyen de la Faculté de Biologie Université d'État de Perm.
@@ -550,7 +564,9 @@
           <t>Activités communautaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Député des Conseils de région, de ville, d'arrondissement.
 Président du Comité soviétique de la paix.
@@ -582,7 +598,9 @@
           <t>Souvenir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alexandre Boukirev était l'un des recteurs les plus appréciés de l'Université de Perm. Une rue de Perm porte son nom.</t>
         </is>
